--- a/Statistics/100m Rygg_statistics.xlsx
+++ b/Statistics/100m Rygg_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4676,12 +4676,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.35,73</t>
+          <t>1.24,28</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4689,12 +4689,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>30.09.2017</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4711,20 +4711,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Brage Gylseth Dahl</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.24,52</t>
+          <t>1.35,73</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4746,20 +4746,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Tor Arne Hegvik</t>
+          <t>Brage Gylseth Dahl</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.24,75</t>
+          <t>1.24,52</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>05.02.2006</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4781,20 +4781,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ailin Østerås</t>
+          <t>Tor Arne Hegvik</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.36,48</t>
+          <t>1.24,75</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>05.02.2006</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4816,20 +4816,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Isabel Ødegård Pedersen</t>
+          <t>Ailin Østerås</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.36,68</t>
+          <t>1.36,48</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4851,25 +4851,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Isabel Ødegård Pedersen</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.25,18</t>
+          <t>1.36,68</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>01.06.2013</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4886,25 +4886,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Anton Hoel</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.25,93</t>
+          <t>1.25,18</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>01.06.2013</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4921,25 +4921,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ingeborg Strandenes</t>
+          <t>Anton Hoel</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.38,00</t>
+          <t>1.25,93</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4956,25 +4956,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Ingeborg Strandenes</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.26,72</t>
+          <t>1.38,00</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4991,12 +4991,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Conrad Sippala Hassel</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.26,59</t>
+          <t>1.26,72</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5004,12 +5004,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5026,25 +5026,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Conrad Sippala Hassel</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.27,07</t>
+          <t>1.26,59</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>27.04.2019</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5061,12 +5061,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.38,83</t>
+          <t>1.27,07</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5074,12 +5074,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>27.04.2019</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5096,25 +5096,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.29,00</t>
+          <t>1.38,83</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20.10.2007</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Henrik Vaaler</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.28,89</t>
+          <t>1.29,00</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -5144,12 +5144,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>20.10.2007</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5166,7 +5166,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Henrik Vaaler</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5201,20 +5201,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.41,19</t>
+          <t>1.28,89</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5236,20 +5236,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Magnus Svindland Næsgaard</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.29,28</t>
+          <t>1.41,19</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>14.01.2023</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5271,25 +5271,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>David Csejtey</t>
+          <t>Magnus Svindland Næsgaard</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.30,72</t>
+          <t>1.29,28</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>14.01.2023</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5306,25 +5306,25 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>David Csejtey</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.30,83</t>
+          <t>1.30,72</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>17.01.2014</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5341,25 +5341,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.43,64</t>
+          <t>1.30,83</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>17.01.2014</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5376,25 +5376,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.31,60</t>
+          <t>1.43,64</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>16.10.2011</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Brunflo</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5411,25 +5411,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.31,99</t>
+          <t>1.31,60</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>14.01.2023</t>
+          <t>16.10.2011</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Brunflo</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5446,20 +5446,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.32,28</t>
+          <t>1.31,99</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>14.01.2023</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5481,20 +5481,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sondre Thorgaard</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.33,18</t>
+          <t>1.32,28</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5516,20 +5516,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Sondre Thorgaard</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.33,51</t>
+          <t>1.33,18</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>14.09.2014</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5551,25 +5551,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Oscar Kvaløy Tiller</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.33,91</t>
+          <t>1.33,51</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>23.10.2021</t>
+          <t>14.09.2014</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5586,12 +5586,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Arild Håkonsen Stixrud</t>
+          <t>Oscar Kvaløy Tiller</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.33,98</t>
+          <t>1.33,91</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5599,12 +5599,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>23.10.2021</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5621,25 +5621,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Arild Håkonsen Stixrud</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.34,39</t>
+          <t>1.33,98</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>19.10.2024</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5656,25 +5656,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.36,81</t>
+          <t>1.34,39</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>27.01.2024</t>
+          <t>19.10.2024</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5691,20 +5691,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Marit Søberg</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.50,28</t>
+          <t>1.36,81</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>27.01.2024</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5726,20 +5726,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Liem Emily Liv</t>
+          <t>Marit Søberg</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.51,50</t>
+          <t>1.50,28</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20.05.2017</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5761,20 +5761,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Liem Emily Liv</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1.38,62</t>
+          <t>1.51,50</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>20.05.2017</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5796,25 +5796,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Iselin Græsli Skaret</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.52,70</t>
+          <t>1.38,62</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>27.04.2019</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5831,25 +5831,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>Iselin Græsli Skaret</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.39,63</t>
+          <t>1.52,70</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>27.04.2019</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5866,20 +5866,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Anniken Skjøstad</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.53,30</t>
+          <t>1.39,63</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5901,20 +5901,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Anniken Skjøstad</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1.40,13</t>
+          <t>1.53,30</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>21.06.2008</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5936,20 +5936,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.40,52</t>
+          <t>1.40,13</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>21.06.2008</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5971,12 +5971,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Randi Leiknes</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.54,19</t>
+          <t>1.40,52</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>24.05.2008</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6006,20 +6006,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Randi Leiknes</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.54,47</t>
+          <t>1.54,19</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>16.09.2017</t>
+          <t>24.05.2008</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6041,20 +6041,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.40,94</t>
+          <t>1.54,47</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>16.09.2017</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6076,20 +6076,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Angelico Mikkel Andersen</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1.41,72</t>
+          <t>1.40,94</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>18.01.2020</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6111,12 +6111,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Angelico Mikkel Andersen</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1.55,44</t>
+          <t>1.41,72</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>17.01.2014</t>
+          <t>18.01.2020</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6146,20 +6146,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mateo Joseph Barriet</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.41,89</t>
+          <t>1.55,44</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>17.01.2014</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6181,25 +6181,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>August Sivertsen Nestgaard</t>
+          <t>Mateo Joseph Barriet</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1.42,16</t>
+          <t>1.41,89</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>18.11.2017</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>August Sivertsen Nestgaard</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.42,38</t>
+          <t>1.42,16</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>12.11.2011</t>
+          <t>18.11.2017</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6251,25 +6251,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1.43,33</t>
+          <t>1.42,38</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>18.04.2009</t>
+          <t>12.11.2011</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6286,25 +6286,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Filip Dalsaune</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1.43,45</t>
+          <t>1.43,33</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>18.04.2009</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6321,20 +6321,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Filip Dalsaune</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.44,04</t>
+          <t>1.43,45</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6356,12 +6356,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.43,88</t>
+          <t>1.44,04</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6369,12 +6369,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>14.03.2015</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6391,25 +6391,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Morten Johansen</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.45,16</t>
+          <t>1.43,88</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>08.10.2005</t>
+          <t>14.03.2015</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6426,20 +6426,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>André Prestmo-Edvardsen</t>
+          <t>Morten Johansen</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1.45,61</t>
+          <t>1.45,16</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>08.10.2005</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6461,12 +6461,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>André Prestmo-Edvardsen</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1.45,57</t>
+          <t>1.45,61</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6496,20 +6496,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1.46,46</t>
+          <t>1.45,57</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6531,20 +6531,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Elias Lien</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1.46,75</t>
+          <t>1.46,46</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6566,20 +6566,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Jesper Øvermo Johansen</t>
+          <t>Elias Lien</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1.47,48</t>
+          <t>1.46,75</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6601,20 +6601,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Theo Sjøhelle</t>
+          <t>Jesper Øvermo Johansen</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1.50,69</t>
+          <t>1.47,48</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6636,20 +6636,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Theo Sjøhelle</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1.51,00</t>
+          <t>1.50,69</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>12.11.2023</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6671,20 +6671,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1.52,08</t>
+          <t>1.51,00</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>12.11.2023</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6706,12 +6706,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1.51,91</t>
+          <t>1.52,08</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6719,12 +6719,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>02.04.2022</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6741,12 +6741,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Agnes Agersborg</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2.07,21</t>
+          <t>1.51,91</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6754,12 +6754,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>10.10.2009</t>
+          <t>02.04.2022</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6776,25 +6776,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Eirik Solligård</t>
+          <t>Agnes Agersborg</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1.52,69</t>
+          <t>2.07,21</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>18.04.2009</t>
+          <t>10.10.2009</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6811,25 +6811,25 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Debik Isabella Johanne</t>
+          <t>Eirik Solligård</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2.10,29</t>
+          <t>1.52,69</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15.09.2018</t>
+          <t>18.04.2009</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6846,20 +6846,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Nataniel Skjøndal-Bar</t>
+          <t>Debik Isabella Johanne</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1.55,39</t>
+          <t>2.10,29</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>23.06.2019</t>
+          <t>15.09.2018</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6881,25 +6881,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Henrik Sumstad</t>
+          <t>Nataniel Skjøndal-Bar</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.56,20</t>
+          <t>1.55,39</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>23.06.2019</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6916,12 +6916,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>Henrik Sumstad</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1.56,63</t>
+          <t>1.56,20</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6929,12 +6929,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6951,20 +6951,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Dominic Olav Sollien-Pearn</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1.57,62</t>
+          <t>1.56,63</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6986,20 +6986,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Markus Indergård Holm</t>
+          <t>Dominic Olav Sollien-Pearn</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1.57,89</t>
+          <t>1.57,62</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>24.05.2008</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7021,12 +7021,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mikkel Fenstad</t>
+          <t>Markus Indergård Holm</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1.58,17</t>
+          <t>1.57,89</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -7034,12 +7034,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>24.05.2008</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7056,25 +7056,25 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ingeborg Vold Kirkvold</t>
+          <t>Mikkel Fenstad</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2.14,86</t>
+          <t>1.58,17</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>10.02.2024</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7091,12 +7091,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Håkon Emil Øien</t>
+          <t>Ingeborg Vold Kirkvold</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1.58,72</t>
+          <t>2.14,86</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>29.10.2011</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7126,20 +7126,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Elias Andersson</t>
+          <t>Håkon Emil Øien</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2.00,14</t>
+          <t>1.58,72</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>14.09.2014</t>
+          <t>29.10.2011</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7161,20 +7161,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Elias Andersson</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2.00,54</t>
+          <t>2.00,14</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>30.09.2023</t>
+          <t>14.09.2014</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7196,20 +7196,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2.02,43</t>
+          <t>2.00,54</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>30.09.2023</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7231,20 +7231,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Magnus Hope</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2.02,85</t>
+          <t>2.02,43</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7266,20 +7266,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Magnus Hope</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2.06,94</t>
+          <t>2.02,85</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7301,25 +7301,25 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2.08,08</t>
+          <t>2.06,94</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>21.04.2018</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7336,12 +7336,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Theodor Hoff</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2.08,27</t>
+          <t>2.08,08</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -7349,12 +7349,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>11.01.2013</t>
+          <t>21.04.2018</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7371,20 +7371,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Jørgen Norvik Skeide</t>
+          <t>Theodor Hoff</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2.09,81</t>
+          <t>2.08,27</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>08.10.2005</t>
+          <t>11.01.2013</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7406,12 +7406,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Jo Svendsen</t>
+          <t>Jørgen Norvik Skeide</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2.10,18</t>
+          <t>2.09,81</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -7419,12 +7419,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>08.10.2005</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7441,25 +7441,25 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Jo Svendsen</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2.10,57</t>
+          <t>2.10,18</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>19.10.2024</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7476,25 +7476,25 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Alexander Andersen</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2.13,66</t>
+          <t>2.10,57</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>19.10.2024</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7511,20 +7511,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Aleksander Belsvik Skarbø</t>
+          <t>Alexander Andersen</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2.14,73</t>
+          <t>2.13,66</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7546,20 +7546,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Riccardo Manum</t>
+          <t>Aleksander Belsvik Skarbø</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2.24,54</t>
+          <t>2.14,73</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7581,25 +7581,25 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Isak Andrè Rausandhaug-Rise</t>
+          <t>Riccardo Manum</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2.36,25</t>
+          <t>2.24,54</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>24.10.2020</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7616,12 +7616,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Casper Dahle-Øfsti</t>
+          <t>Isak Andrè Rausandhaug-Rise</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2.35,68</t>
+          <t>2.36,25</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -7629,20 +7629,55 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
+          <t>24.10.2020</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Namsos</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Casper Dahle-Øfsti</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2.35,68</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>29</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>15.09.2013</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -7659,7 +7694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10297,25 +10332,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sigurd Rodal Leirgulen</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.31,02</t>
+          <t>1.30,29</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>14.04.2018</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -10332,25 +10367,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vegard S. Wigum</t>
+          <t>Sigurd Rodal Leirgulen</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.33,44</t>
+          <t>1.31,02</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -10367,25 +10402,25 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Vegard S. Wigum</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.33,76</t>
+          <t>1.33,44</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -10402,25 +10437,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Magnus Svindland Næsgaard</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1.34,26</t>
+          <t>1.33,76</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -10437,25 +10472,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Thomas Stur Ekrem</t>
+          <t>Magnus Svindland Næsgaard</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1.36,72</t>
+          <t>1.34,26</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -10472,20 +10507,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Thomas Stur Ekrem</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.37,67</t>
+          <t>1.36,72</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10507,12 +10542,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1.37,76</t>
+          <t>1.37,67</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -10520,7 +10555,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10542,20 +10577,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ivan Erikovitch Alvestad</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.39,55</t>
+          <t>1.37,76</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10577,25 +10612,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Maxim Sergeevich Gorodkov</t>
+          <t>Ivan Erikovitch Alvestad</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1.39,70</t>
+          <t>1.39,55</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -10612,25 +10647,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Maxim Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.40,11</t>
+          <t>1.39,70</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>17.04.2016</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -10647,7 +10682,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -10660,7 +10695,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10682,16 +10717,16 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Iselin Græsli Skaret</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.54,98</t>
+          <t>1.40,11</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10717,20 +10752,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Iselin Græsli Skaret</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.46,34</t>
+          <t>1.54,98</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10752,20 +10787,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.48,69</t>
+          <t>1.46,34</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>13.06.2009</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10787,25 +10822,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Marit Søberg</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.01,82</t>
+          <t>1.48,69</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>13.06.2009</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10822,25 +10857,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Robert Andre Skarø</t>
+          <t>Marit Søberg</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.50,72</t>
+          <t>2.01,82</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10857,25 +10892,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Randi Leiknes</t>
+          <t>Robert Andre Skarø</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.03,32</t>
+          <t>1.50,72</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -10892,25 +10927,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Elias Lien</t>
+          <t>Randi Leiknes</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.54,27</t>
+          <t>2.03,32</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10927,25 +10962,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Elias Lien</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.13,00</t>
+          <t>1.54,27</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10962,25 +10997,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Alfred Fenstad Høysæter</t>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.00,07</t>
+          <t>2.13,00</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>17.04.2016</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10997,12 +11032,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kasper Steen Jensen</t>
+          <t>Alfred Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.00,04</t>
+          <t>2.00,07</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -11010,20 +11045,55 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>09.06.2018</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Hamar</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>50m</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Kasper Steen Jensen</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2.00,04</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>79</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>15.06.2024</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Ankerskogen svømmehall</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>50m</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -11040,7 +11110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15778,25 +15848,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.24,28</t>
+          <t>1.36,62</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>30.09.2017</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -15813,20 +15883,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Nora Elvira Wengstad Jakobsen</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.36,62</t>
+          <t>1.36,87</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -15848,20 +15918,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nora Elvira Wengstad Jakobsen</t>
+          <t>Ane Hegland</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.36,87</t>
+          <t>1.37,93</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -15883,20 +15953,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ane Hegland</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.37,93</t>
+          <t>1.38,02</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -15918,20 +15988,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Erle Kullerud Ytrehus</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.38,02</t>
+          <t>1.38,89</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>27.01.2024</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -15953,25 +16023,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Erle Kullerud Ytrehus</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.38,89</t>
+          <t>1.39,06</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>27.01.2024</t>
+          <t>12.02.2022</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -15988,25 +16058,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.39,06</t>
+          <t>1.40,34</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12.02.2022</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -16023,20 +16093,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.40,34</t>
+          <t>1.41,05</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -16058,20 +16128,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.41,05</t>
+          <t>1.41,24</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -16093,20 +16163,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.41,24</t>
+          <t>1.41,43</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>05.02.2006</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -16128,25 +16198,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.41,43</t>
+          <t>1.29,86</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>05.02.2006</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -16163,25 +16233,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.29,86</t>
+          <t>1.43,13</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>09.04.2016</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -16198,25 +16268,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Hedda Gätzschmann</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.43,13</t>
+          <t>1.43,45</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>09.04.2016</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -16233,25 +16303,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Hedda Gätzschmann</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.43,45</t>
+          <t>1.43,77</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>11.02.2012</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -16268,25 +16338,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.43,77</t>
+          <t>1.45,25</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>11.02.2012</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -16303,25 +16373,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Kaia Winnberg</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.45,25</t>
+          <t>1.45,56</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -16338,25 +16408,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Kaia Winnberg</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.45,56</t>
+          <t>1.48,11</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -16373,25 +16443,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1.48,11</t>
+          <t>1.49,27</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>19.01.2019</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -16408,20 +16478,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Olivia Hjelmeseth Larsen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.49,27</t>
+          <t>1.51,37</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>19.01.2019</t>
+          <t>19.11.2022</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -16443,20 +16513,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Olivia Hjelmeseth Larsen</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.51,37</t>
+          <t>1.51,84</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16478,20 +16548,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Ella Katrine Lind Bøckman</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.51,84</t>
+          <t>1.51,91</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -16513,25 +16583,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ella Katrine Lind Bøckman</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1.51,91</t>
+          <t>1.52,24</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>24.11.2012</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -16548,25 +16618,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Lena Sofie Hammer</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.52,24</t>
+          <t>1.53,19</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>24.11.2012</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16583,20 +16653,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lena Sofie Hammer</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.53,19</t>
+          <t>1.54,60</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -16618,12 +16688,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Jassmitha Ajeethsing</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.54,60</t>
+          <t>1.54,83</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -16631,7 +16701,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -16653,12 +16723,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Jassmitha Ajeethsing</t>
+          <t>Marita Fuglestad Løkken</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.54,83</t>
+          <t>1.54,84</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -16666,12 +16736,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>09.11.2013</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -16688,25 +16758,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Marita Fuglestad Løkken</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1.54,84</t>
+          <t>1.54,98</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>09.11.2013</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -16723,12 +16793,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1.54,98</t>
+          <t>1.55,22</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -16736,12 +16806,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -16758,25 +16828,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Nora Grande Bjerkan</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.55,22</t>
+          <t>1.55,69</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>15.05.2010</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -16793,25 +16863,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Nora Grande Bjerkan</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1.55,69</t>
+          <t>1.56,22</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>15.05.2010</t>
+          <t>03.11.2012</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -16828,20 +16898,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.56,22</t>
+          <t>1.56,36</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>21.06.2008</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -16863,20 +16933,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Hedda Thorgaard</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1.56,36</t>
+          <t>1.56,84</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>21.06.2008</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -16898,20 +16968,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hedda Thorgaard</t>
+          <t>Sunniva Eldholm</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1.56,84</t>
+          <t>1.57,65</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -16933,20 +17003,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sunniva Eldholm</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.57,65</t>
+          <t>1.59,84</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -16968,25 +17038,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Julie Gilbu</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.59,84</t>
+          <t>2.00,22</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>14.03.2015</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -17003,12 +17073,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Julie Gilbu</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2.00,22</t>
+          <t>1.59,97</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -17016,12 +17086,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>14.03.2015</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -17038,20 +17108,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Live Furmyr Johansen</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1.59,97</t>
+          <t>2.00,59</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>05.12.2021</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -17073,25 +17143,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Live Furmyr Johansen</t>
+          <t>Ida Fjellvær</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2.00,59</t>
+          <t>2.02,71</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>05.12.2021</t>
+          <t>18.04.2009</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -17108,12 +17178,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Ida Fjellvær</t>
+          <t>Malin Sandstad</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2.02,71</t>
+          <t>2.02,50</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -17121,12 +17191,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>18.04.2009</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -17143,12 +17213,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Malin Sandstad</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2.02,50</t>
+          <t>2.02,70</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -17156,12 +17226,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -17178,12 +17248,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Saiyara Jalisa Rahman</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2.02,70</t>
+          <t>2.02,67</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -17191,12 +17261,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>19.09.2020</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -17213,20 +17283,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Saiyara Jalisa Rahman</t>
+          <t>Regine Nysæther</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2.02,67</t>
+          <t>2.04,26</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>19.09.2020</t>
+          <t>31.10.2009</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -17248,20 +17318,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Regine Nysæther</t>
+          <t>Live Eilertsen-Granbo</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2.04,26</t>
+          <t>2.04,49</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>31.10.2009</t>
+          <t>15.09.2018</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -17283,20 +17353,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Live Eilertsen-Granbo</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2.04,49</t>
+          <t>2.06,76</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>15.09.2018</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -17318,20 +17388,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Vilma Granhus Følstad</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2.06,76</t>
+          <t>2.10,64</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -17353,25 +17423,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Vilma Granhus Følstad</t>
+          <t>Kristine Haram Bye</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2.10,64</t>
+          <t>2.10,77</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>04.12.2010</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -17388,25 +17458,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kristine Haram Bye</t>
+          <t>Emma Hilmarsen</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2.10,77</t>
+          <t>2.11,38</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>04.12.2010</t>
+          <t>02.02.2013</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -17423,25 +17493,25 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Emma Hilmarsen</t>
+          <t>Oda Emilie Krogh</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2.11,38</t>
+          <t>2.12,51</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>02.02.2013</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -17458,16 +17528,16 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Oda Emilie Krogh</t>
+          <t>Karolina Kania</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2.12,51</t>
+          <t>2.12,89</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17493,20 +17563,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Karolina Kania</t>
+          <t>Klara Marie Gildemyn Strabac</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2.12,89</t>
+          <t>2.13,92</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -17528,20 +17598,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Klara Marie Gildemyn Strabac</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2.13,92</t>
+          <t>2.20,42</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -17563,20 +17633,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Snorre Risholt Moen</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2.20,42</t>
+          <t>2.07,54</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>15.09.2013</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -17598,25 +17668,25 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Snorre Risholt Moen</t>
+          <t>KARIANNE HUSBY</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2.07,54</t>
+          <t>2.26,76</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>15.09.2013</t>
+          <t>13.11.2010</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -17625,41 +17695,6 @@
         </is>
       </c>
       <c r="G188" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>KARIANNE HUSBY</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2.26,76</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>52</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>13.11.2010</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Hommelvik</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -17676,7 +17711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20734,25 +20769,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.30,29</t>
+          <t>1.42,27</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>14.04.2018</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -20769,20 +20804,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1.42,27</t>
+          <t>1.42,45</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -20804,20 +20839,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.42,45</t>
+          <t>1.46,17</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -20839,25 +20874,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1.46,17</t>
+          <t>1.46,97</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -20874,25 +20909,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.46,97</t>
+          <t>1.48,06</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>09.04.2011</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20909,16 +20944,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.48,06</t>
+          <t>1.55,63</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -20944,25 +20979,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.55,63</t>
+          <t>1.56,48</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>09.04.2011</t>
+          <t>09.06.2018</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -20979,20 +21014,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.56,48</t>
+          <t>1.57,10</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>09.06.2018</t>
+          <t>10.06.2017</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -21014,25 +21049,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1.57,10</t>
+          <t>2.03,57</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>10.06.2017</t>
+          <t>08.01.2008</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -21049,16 +21084,16 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2.03,57</t>
+          <t>2.10,46</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -21084,25 +21119,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2.10,46</t>
+          <t>2.02,16</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>08.01.2008</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -21111,41 +21146,6 @@
         </is>
       </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2.02,16</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>75</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>15.06.2019</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Hamar</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
